--- a/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D69ADAFD-63F9-41F2-9581-49607A53DF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{983BFC71-5438-4DCD-8DFD-8A45ED4C870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1A68C56-5FF8-466A-9EA2-B769353616CA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{635D89FA-75A2-44DF-BFB6-D06792ADBF7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>62,69%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>37,31%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>63,66%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>58,89%</t>
   </si>
   <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>69,27%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>47,98%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>52,02%</t>
   </si>
   <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>58,67%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,7 +368,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -380,13 +380,13 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>70,0%</t>
+    <t>69,98%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>32,65%</t>
+    <t>28,11%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -395,61 +395,55 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>30,0%</t>
+    <t>30,02%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>61,99%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>38,01%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0994D77-D578-4812-91D7-E19AED0FFE91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7452FBD0-BE92-4864-94D4-242D6CBAF7E7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,7 +1918,7 @@
         <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>444</v>
@@ -1933,13 +1927,13 @@
         <v>458672</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1525</v>
@@ -1948,13 +1942,13 @@
         <v>1584320</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1963,13 @@
         <v>622152</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>441</v>
@@ -1984,13 +1978,13 @@
         <v>465792</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1033</v>
@@ -1999,13 +1993,13 @@
         <v>1087945</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2055,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{983BFC71-5438-4DCD-8DFD-8A45ED4C870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48988B3D-4087-4A4F-94BE-D7C91460FE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{635D89FA-75A2-44DF-BFB6-D06792ADBF7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0620FF51-6201-4B70-B869-2BD24262A395}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>62,69%</t>
   </si>
   <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>37,31%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,16 +137,16 @@
     <t>63,66%</t>
   </si>
   <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>44,93%</t>
+    <t>44,76%</t>
   </si>
   <si>
     <t>56,35%</t>
@@ -155,19 +155,19 @@
     <t>58,89%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
   </si>
   <si>
     <t>49,35%</t>
@@ -176,16 +176,16 @@
     <t>43,65%</t>
   </si>
   <si>
-    <t>55,07%</t>
+    <t>55,24%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,19 +194,19 @@
     <t>69,27%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>62,14%</t>
@@ -215,31 +215,31 @@
     <t>58,71%</t>
   </si>
   <si>
-    <t>65,54%</t>
+    <t>65,58%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>34,42%</t>
   </si>
   <si>
     <t>41,29%</t>
@@ -251,55 +251,55 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>47,98%</t>
   </si>
   <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>52,02%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>58,67%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,7 +368,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>67,35%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -380,13 +380,13 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>69,98%</t>
+    <t>71,14%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>28,11%</t>
+    <t>32,65%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -395,55 +395,61 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>30,02%</t>
+    <t>28,86%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>61,99%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>38,01%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7452FBD0-BE92-4864-94D4-242D6CBAF7E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDD2FC1-DFCB-4A6C-B942-6F3A960A7F5E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,7 +1924,7 @@
         <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>444</v>
@@ -1927,13 +1933,13 @@
         <v>458672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1525</v>
@@ -1942,13 +1948,13 @@
         <v>1584320</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1969,13 @@
         <v>622152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>441</v>
@@ -1978,13 +1984,13 @@
         <v>465792</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1033</v>
@@ -1993,13 +1999,13 @@
         <v>1087945</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48988B3D-4087-4A4F-94BE-D7C91460FE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D2C395-47BD-4E6F-95C0-09665C11D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0620FF51-6201-4B70-B869-2BD24262A395}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1479775-8BA3-4400-825F-05F43F07EA07}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,22 +68,22 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>38,18%</t>
+    <t>39,37%</t>
   </si>
   <si>
     <t>55,81%</t>
@@ -92,10 +92,10 @@
     <t>55,66%</t>
   </si>
   <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>37,31%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>53,12%</t>
@@ -116,16 +116,16 @@
     <t>44,19%</t>
   </si>
   <si>
-    <t>61,82%</t>
+    <t>60,63%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>63,66%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>58,89%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>69,27%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>47,98%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>52,02%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>58,67%</t>
   </si>
   <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -380,7 +380,7 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>71,14%</t>
+    <t>70,0%</t>
   </si>
   <si>
     <t>83,7%</t>
@@ -395,61 +395,61 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>28,86%</t>
+    <t>30,0%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDD2FC1-DFCB-4A6C-B942-6F3A960A7F5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0803C1-9E96-4963-94B2-AD053A19DBAA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D2C395-47BD-4E6F-95C0-09665C11D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EF5F63-82C5-4CAB-9FD8-5F33AA6C4FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A1479775-8BA3-4400-825F-05F43F07EA07}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{32993609-3134-4FE6-8608-4703641C633C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>63,66%</t>
@@ -188,7 +188,7 @@
     <t>44,42%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>69,27%</t>
@@ -245,7 +245,7 @@
     <t>41,1%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>62,27%</t>
@@ -302,7 +302,7 @@
     <t>46,82%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>58,67%</t>
@@ -359,16 +359,16 @@
     <t>48,02%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -377,25 +377,34 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>64,4%</t>
@@ -864,8 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0803C1-9E96-4963-94B2-AD053A19DBAA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED4C269-FF5F-4F3E-B020-82D03624573D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1757,10 +1766,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1781,22 +1790,22 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1718</v>
+        <v>897</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>114</v>
@@ -1808,19 +1817,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>4217</v>
+        <v>2568</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1829,25 +1838,25 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>5164</v>
+        <v>3514</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>112</v>
@@ -1859,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1898,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>6882</v>
+        <v>4411</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1915,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1081</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1125648</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="7">
-        <v>444</v>
-      </c>
-      <c r="I22" s="7">
-        <v>458672</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>1525</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1584320</v>
+        <v>821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +1970,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>592</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>622152</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
-        <v>441</v>
-      </c>
-      <c r="I23" s="7">
-        <v>465792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
-        <v>1033</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1087945</v>
+        <v>1650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2019,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1081</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1125648</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="7">
+        <v>444</v>
+      </c>
+      <c r="I25" s="7">
+        <v>458672</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1525</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1584320</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>592</v>
+      </c>
+      <c r="D26" s="7">
+        <v>622152</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="7">
+        <v>441</v>
+      </c>
+      <c r="I26" s="7">
+        <v>465792</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1033</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1087945</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1673</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1747800</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>885</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>924464</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2558</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2672265</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
